--- a/biology/Botanique/Faramea_sessiliflora/Faramea_sessiliflora.xlsx
+++ b/biology/Botanique/Faramea_sessiliflora/Faramea_sessiliflora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Faramea sessiliflora est une espèce néotropicale darbuste, appartenant à la famille des Rubiaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Faramea sessiliflora est un arbuste ou un petit arbre atteignant jusqu'à 7 m de haut
 Les feuilles subsessiles mesurent 10,5-26 × 3,5-8 cm.
@@ -520,10 +534,10 @@
 Le limbe du calice est denticulé, long d'environ 0,5 mm.
 La corolle est bleu pâle à bleu foncé, avec le tube long de 4,5-6,5 mm, et les lobes de 3,5-5 mm de long.
 Le fruit, oblong, mesure 5-6 × 6-7 mm. 
-La taille et surtout la forme des feuilles sont très variables chez Faramea sessilifolia[3].
+La taille et surtout la forme des feuilles sont très variables chez Faramea sessilifolia.
 En 1953, Lemée en propose la description suivante de Faramea sessiliflora :
 « Arbrisseau à feuilles subsessiles ovales ou suhovales aiguës ou longuement acuminées, vertes luisantes entières, stipules du genre ; inflorescences terminales formées de 3 groupes sessiles chacun composé de 3-4 fleurs sessiles, avec longues bractées ; fleurs blanches odorantes, calice 4-denté, corolle à tube assez long, style long. et grêle ; fruit. - Forêts de Caux (Aublet). »
-— Albert Lemée, 1953.[4]</t>
+— Albert Lemée, 1953.</t>
         </is>
       </c>
     </row>
@@ -551,9 +565,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Faramea sessiliflora est présent dans de la Colombie au Brésil en passant par le Venezuela, les Guyanes, le Pérou et la Bolivie[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Faramea sessiliflora est présent dans de la Colombie au Brésil en passant par le Venezuela, les Guyanes, le Pérou et la Bolivie.
 </t>
         </is>
       </c>
@@ -582,10 +598,12 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Faramea sessiliflora pousse dans les forêts de plaine à feuilles persistantes, affleurements granitiques, à 50-200 m d'altitude[3].
-Sa taxonomie a été abordée[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Faramea sessiliflora pousse dans les forêts de plaine à feuilles persistantes, affleurements granitiques, à 50-200 m d'altitude.
+Sa taxonomie a été abordée.
 </t>
         </is>
       </c>
@@ -614,9 +632,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose le protologue suivant[6] : 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose le protologue suivant : 
 « 2. FARAMEA (ſeſſiflora) foliis ovatis, acutis; floribus ſeſſilibus, terminatricibus. (Tabula 40. Fig. 2.)
 Frutex differt à præcedenti, floribus ſeſſilibus, corymboſis, tri vel quadri-floris ; corolla tubo longiori.
 Flores expanfi odorem jaſmini exhalant.
